--- a/500all/speech_level/speeches_CHRG-114hhrg99647.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99647.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Good afternoon. Today, the subcommittee convenes to receive testimony on the fiscal year 2017 Air Force budget request, regarding bomber, tanker, and airlift acquisition programs. The distinguished panel of Air Force leaders testifying before us are Lieutenant General Mike Holmes, Air Force Deputy Chief of Staff for Strategic Plans and Requirements, and Lieutenant General Arnold W. Bunch, Jr., United States Air Force Military Deputy, Office of the Assistant Secretary of the Air Force for Acquisition.    Gentlemen, we thank you both for your service to our country and for taking the time to be with us today. The fiscal year 2017 budget request for Air Force projection forces is a good step forward to support our national defense.    I am pleased to see continued investment in recapitalizing the aging bomber and air refueling fleets with the critically needed Long Range Strike Bomber [LRS-B], recently designated the B-21, and the KC-46A tanker.    The budget also takes some steps to modernize the legacy C-130H tactical airlift fleet. That said, I continue to be concerned about the ability of our military to properly provide for our Nation's defense at the proposed fiscal year 2017 budget levels.    As I and many of the members of this subcommittee indicated in a letter to the chairman of the Budget Committee, this year's budget request reduced investment in critical force structure and modernization programs by approximately $18 billion.    Specifically, I am concerned about the implications of delaying the incremental replacement of the C-130H fleet and the proposed reduction of 27 C-130s. The Air Force has previously assessed that there is moderate risk with reduced C-130 force structure, and another reduction further places our national security at even greater risk.    It seems to me that the budget request will result in a tactical airlift fleet that is smaller and older, a dangerous combination. The Air Force budget rollout indicated ``the Air Force is one of the smallest, busiest, and oldest and least ready fleets in our history.''    It is my firm conviction, in light of the higher-end threats posed by China, Russia, Iran, and North Korea, that the Air Force have the resources it needs to fully support--and if possible accelerate--critical recapitalization programs; to include purchasing additional aircraft with each dollar saved, if the war fighting requirements demand it.    With regards to bombers, last week the Air Force designated the Long Range Strike Bomber as the B-21 bomber. I fully support this critical program and am pleased to see that we are, once again, moving forward on this new platform, which will be needed for projecting power over long distances and into denied environments.    With regard to tankers, I am pleased to see that the KC-46A program appears to be on track after overcoming some initial setbacks and is continuing to execute a highly compressed test and certification schedule that has little room for error. I look forward to hearing your thoughts on this program, and whether or not the first 18 aircraft will be delivered in time to meet the August 2017 contract deadline.    Lastly, I am concerned that this budget fails to provide the resources needed to procure the avionics upgrades needed to ensure that the entire fleet of tankers, airlifters, and bombers are able to cooperate safely in compliance with the FAA [Federal Aviation Administration] mandated next-generation air traffic management standards by January 1, 2020.    The civilian aviation sector is rapidly moving toward compliance, and I am concerned that our military aircraft could be shut out of the airspace they need for transit and training.    In sum, while I am pleased that the Air Force fiscal year 2017 budget request makes up some lost ground over last year, I am concerned that the proposed budget forces the Air Force and its sister services to make false choices between capability, capacity, and safety, when the undeniable reality is that our military needs all of the above.    I firmly believe that what this subcommittee and the rest of Congress does about national defense and military readiness will be a defining issue. I firmly believe that we need a strong Air Force, equipped with the most capable aircraft that enable our men and women to carry out their missions effectively and safely.    To do this, we need leadership in national security. We need an unambiguous declaration that our national security is our preeminent responsibility.    Once again, I want to thank our witnesses for participating in our hearing this afternoon. And I look forward to discussing these important topics.    And, with that, I turn to my good friend and colleague, the ranking member of the subcommittee, Joe Courtney.    [The prepared statement of Mr. Forbes can be found in the Appendix on page 27.]</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. Thank you for holding this hearing on the 2017 Air Force budget request for projection forces program, under the jurisdiction of our subcommittee. And thank you, as well, to our distinguished witnesses that are here today.    The tankers, bombers, and airlift programs that fall under the projection forces side of our panel's oversight serve as the backbone of our Nation's ability to conduct operations and preserve our Nation's interests around the world.    As we know all too well, however, they all share the common enemy of age. The tankers and bombers in service today are largely legacy aircraft that, in most cases, are much older than the airmen and women who fly them.    As we have heard repeatedly in our hearings over the last year, the need to modernize and recapitalize these aircraft and their capabilities is increasingly critical. Rapidly improving A2/AD [anti-access/area denial] capabilities, long-range weapons, and sensing technologies make upgrading and replacing our legacy fleets that much more important.    In order to meet these challenges, we must make the right investments today to ensure that we stay ahead of these trends. In my view, the 2017 budget we are considering here today makes important investments toward this goal and, on the whole, moves us in the right direction.    Most notably, the budget continues to reflect the high strategic priority placed on two critical recapitalization programs, the KC-46A Pegasus tanker and the newly designated B-21 Long Range Strike Bomber.    Both programs have recently seen important milestones in their progress. For example, a KC-46A successfully conducted an in-flight refueling of an F/A-18 Hornet last month, making the aircraft's first use of the tanker's hose and drogue system.    And the B-21 bomber recently saw the restart of the program, following the conclusion of a protest of the contract award. Together, these developments show continued progress toward rebuilding the essential backbone of our force projection capabilities. And I look forward to an update on the status of these two efforts.    An ongoing area of concern for me is the modernization of our C-130H fleet. The ``Flying Yankees'' of the 103d Airlift Wing in Connecticut have largely completed their transition to their new C-130H flying mission.    This mission, which ends several years of uncertainty about losing their A-10 mission in BRAC [Base Realignment and Closure] 2005, provides a sustainable and relevant role for our State and an important mobility capability for our Nation.    Until last year, Congress and the Air Force had struggled to move forward on a clear plan to modernize our C-130Hs. Working with Air Force officials that are here, General Holmes, in particular, we included language in the 2016 NDAA [National Defense Authorization Act] to allow the service to move forward with a two-part modernization program to meet near-term FAA and international airspace mandates that go into effect in 2020 and then focus on the longer-term upgrades, to ensure the viability of the fleet well into the future.    I am pleased that the budget accelerates both modernization efforts, known as AMP 1 [Avionics Modernization Program] and AMP 2, for the C-130H fleet. It is my understanding that, through this budget, the Air Force intends to have most, if not all, of the fleet airspace compliant by the 2020 deadline.    Further, the budget outlines a plan to install 42 Increment 2 upgrades by 2021 and to the rest of the fleet by 2028. I look forward to hearing from the witnesses about ways in which the Air Force, with the support of Congress, can continue to accelerate Increment 2 to meet the enduring need for these workhorses of our Nation's airlift.    Finally, over the last year, Congress has made meaningful and bipartisan progress in limiting the impact of sequestration and the Budget Control Act [BCA]. While partially limiting the across-the-board cuts in 2016 and 2017 was important, the fact remains that our Air Force, like the military at large, remains handcuffed by sequestration in 2018 and beyond.    Ever since passage of the Bipartisan Budget Act [BBA] last fall, several world events have further demonstrated just how important it is for all of us on this committee and our colleagues to work on both sides of the aisle in Congress to come together to make the compromises needed to protect our security and support the needs of our Nation.    I look forward to hearing from our witnesses and our colleagues on the subcommittee.    And, Mr. Chairman, I yield back.    [The prepared statement of Mr. Courtney can be found in the Appendix on page 29.]</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>412444</t>
   </si>
   <si>
-    <t>Vicky Hartzler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you. Thank you, Mr. Chairman. And I would have to say, General, that the citizens of Tennessee, no doubt, are very proud of both of you. So quite an accomplishment. Appreciate what you do.    I wanted to follow up, actually, on what the ranking member was questioning about the propellers and the engines. Can you, just going forward, tell us about how fuel efficiency would be impacted by the investment in propeller and engine modernizations?    General Bunch. Ma'am, I do not have a number in front of me. I know that is one of the factors that we will weigh out in the operational evaluation, will be to determine how much fuel savings there are, so that we could do the cost capability analysis, but I do not have a number on me. I will take that for the record.    [The information referred to can be found in the Appendix on page 53.]</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman, and thank you for calling this hearing.    General Holmes and General Bunch, thank you very much for your service to our country. I guess either one of you might be able to answer this. I asked this question at a previous hearing, but I will repeat it again.    First, I would like to voice my appreciation for the Air Force's diligent work in moving forward with the acquisition process of the Long Range Strike Bomber. The capabilities that this platform will provide are extremely, extremely necessary to maintain the defense of our Nation and our allies.    So, General Bunch, I will begin with you. There has been recent criticism from one of our Senators against the Air Force's proposed use of cost-plus during the early stages of the acquisition program for the Long Range Strike Bomber.    Now, can you please explain why the Air Force prefers a blended, cost-plus, fixed-price approach for this program and what advantages, General, it provides, in this instance, over the traditional acquisition method?    General Bunch. Well, thank you, ma'am. That is a topic of interest, and I am glad that I get the opportunity to try to address it. Let me start with, there is no one-size-fits-all when it comes to deciding what kind of a contract you want to use on an acquisition program. There are various factors that are weighed out.    On this one, we carefully considered the full spectrum of contract options before a decision was made by the Milestone Decision Authority to go forward with a cost-plus for the engineering, manufacturing, and development.    In reality, over 70% of the program, as it is laid out today, is actually on a fixed-price type contract. It is only the part that is in the EMD [engineering and manufacturing development] phase, is the only part, right now, that is in a cost-plus environment, but the vast majority of it is in a fixed price.    The key factors that went into the decision to go forward with a cost-plus contract were the risk involved. And when there is technical risk and you don't really--you have never built something before, there is a risk that is out there, and a cost-plus environment is more frequently used in that case    In this case, we had mature technologies to meet the requirement, and that was good. But now we have to integrate all of those mature technologies together, which carries risk, and we have to build a never-before-built, low-observable, penetrating bomber and integrate those on it. Those are the main technical risk areas that we have focused on.    The other one that you focus on and that we consider is, can the contractor who is doing this kind of work absorb a loss if one were to occur. The example many point to right know is the KC-46 program.    The KC-46 program is gone beyond what the Air Force cap, in the expenses, but Boeing continues to do that and continue that work, because they have a commercial line that they can utilize and they can continue to get benefits from. And the other piece they can do is they can get foreign military sales.    Commercialization of a Long Range Strike Bomber and foreign military sales are not two things that we are looking at. So the ability of any contractor that took this contract to be able to absorb that and not sell it out, that wouldn't be feasible.    And there are many examples that you can go back and look at where we have tried to do fixed-price development programs on new and emerging technologies, and many of those cases have not been very successful. But that is the reason we went down that path.    We realize that one of the big concerns that people have with this strategy is the need to control cost growth, and that is a focus area that we have had from the very beginning of the program.    We have used mature technologies, so we are not worried about developing additional. It is not--you are not developing a system along with the platform, you are just developing the platform. So we have limited some of the risk there. We have an independent cost assessment. It was done outside the program office, and we funded that independent cost assessment, in accordance with the law.    And then, the other one we have on this program are stable requirements. Stable requirements and requirements control and funding with a good cost assessment from the beginning, studies have shown are the two main ways to control, two of the major ways to control, cost growth. So we are stable on our requirements and we feel like we are in a good position for starting the program.    The other piece that we have implemented here is, our requirements control officer for the program is our chief. He has made it crystal clear the requirements are the requirements and no one else is going to change those. So we have a tight control on those, as well.    The final thing I would say we have done to control cost growth is that we have structured the contract with an incentive structure that incentivizes the contractor in the way we want. If they do not control cost and they do not control schedule, they will, in the end, not get any fee. So we have structured it in a manner to control those cost growths, and we know this is going to be a topic of more discussion, ma'am.</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>412538</t>
   </si>
   <si>
-    <t>Jackie Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman, and thank you, gentlemen, for being here.    General Bunch, I have a question. What is your assessment of whether Boeing will meet its contractual obligations to deliver 18 KC-46As by August of 2017?    General Bunch. So, ma'am, we are still cautiously optimistic. Boeing still assesses that they can meet it. They are committed to that date. They have put additional resources to make that date, but we have no schedule margin. And if I am asked why I am cautiously optimistic, we are still early in a test program that we talked about.    We have been successful with meeting our milestone C criteria for an F-16, for the F-18, which was discussed, and also with the KC-46 receiving gas as a refueler. So we have made progress, but we still have a lot of progress to go, ma'am.</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t>412620</t>
   </si>
   <si>
-    <t>Gwen Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman. Good to see you both again. I had, actually, a different question, but something you just said just sparked--first of all, you are young. Very, very young. In terms of maintaining this aircraft, these aircraft, what is the maintenance, what is the process for maintenance that you follow?    One of the things that concern me, I represent Tyndall. And when I went to visit Tyndall one time, I had someone pull me aside and say, the challenges that they faced. And I am sorry if this question has already been asked, if I walked in--the challenges they face with just getting a part, in order to fly the F-22. What challenges, if any, do you all face with the maintenance of the, let me use, the Air Force projection forces? Thank you.    General Bunch. Yes, ma'am. So, we face challenges on the older aircraft. There is no doubt about it. We are constantly fighting diminishing manufacturing sources and parts obsolescence. It is one that the program offices actually track, so they can determine where they can get parts.    There are certain ways that we will work together, and, in many of our efforts, we will identify where the trends are. And we will make investments in those from a supportability phase, so that we can modernize those components, as time goes forward.    So it is a risk that we run on all the older fleets. What we also find is that we don't know what we don't know sometimes. Sometimes, we will find things as we go into depot maintenance.    Sometimes we will find things out on the frontline that we didn't predict, simply because of the age of the fleet and how they have matured through the use and the extensive use that we have with the platforms.</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman. General Bunch, I just want to thank you for your commitment in the President's budget request for AMP 1 and AMP 2. I wanted to ask, is AMP 1 multiple contracts or a single contract covering all of AMP 1?    General Bunch. So it depends on which exact phase we are talking about, sir. So the answer, I hate to say, it depends.</t>
   </si>
   <si>
@@ -242,9 +221,6 @@
   </si>
   <si>
     <t>400232</t>
-  </si>
-  <si>
-    <t>Rick Larsen</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman. I would have questions on the K-46, but other than you all, the folks, good men and women on the line at Boeing, and me, we are all probably living and breathing it every day. And I know what I need to know on the 46. So I won't ask any more questions about that.    I do have a question, just one, Mr. Chairman, on subject matter in your testimony on the B-52 and the length of time we are expecting it to, as a platform, to stick around, and combining that with all the discussion we have on A2/AD environments.    And, so, if you could talk a little bit, maybe more clearly or any more details, specific detail about the B-52's role in the future in an A2/AD environment and from standoff and what we expect to be able to invest in it?    General Holmes. Thank you, Congressman. I will start and see if Arnie has anything to add.</t>
@@ -697,11 +673,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -721,13 +695,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -749,11 +721,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -775,11 +745,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -801,11 +769,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -827,11 +793,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -853,11 +817,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -879,11 +841,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -905,11 +865,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -931,11 +889,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -957,11 +913,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -983,11 +937,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1009,11 +961,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1035,11 +985,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1059,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1085,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1111,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1139,11 +1081,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1163,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1189,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1215,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>34</v>
-      </c>
-      <c r="H22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1241,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1267,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1293,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1321,11 +1249,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1347,11 +1273,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1371,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1397,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1425,11 +1345,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1449,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1475,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1501,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1527,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>48</v>
-      </c>
-      <c r="G34" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1555,11 +1465,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1579,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1605,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1631,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1657,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1685,11 +1585,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1709,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1735,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1761,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1787,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1813,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1839,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>62</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1865,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>63</v>
-      </c>
-      <c r="H47" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1891,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1917,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1943,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1971,11 +1849,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1995,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G52" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2021,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G53" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2047,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2073,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2099,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2127,11 +1993,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2153,11 +2017,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2179,11 +2041,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2205,11 +2065,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2231,11 +2089,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2257,11 +2113,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2283,11 +2137,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2309,11 +2161,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2335,11 +2185,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2361,11 +2209,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2387,11 +2233,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2413,11 +2257,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2439,11 +2281,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99647.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99647.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes. Good afternoon. Today, the subcommittee convenes to receive testimony on the fiscal year 2017 Air Force budget request, regarding bomber, tanker, and airlift acquisition programs. The distinguished panel of Air Force leaders testifying before us are Lieutenant General Mike Holmes, Air Force Deputy Chief of Staff for Strategic Plans and Requirements, and Lieutenant General Arnold W. Bunch, Jr., United States Air Force Military Deputy, Office of the Assistant Secretary of the Air Force for Acquisition.    Gentlemen, we thank you both for your service to our country and for taking the time to be with us today. The fiscal year 2017 budget request for Air Force projection forces is a good step forward to support our national defense.    I am pleased to see continued investment in recapitalizing the aging bomber and air refueling fleets with the critically needed Long Range Strike Bomber [LRS-B], recently designated the B-21, and the KC-46A tanker.    The budget also takes some steps to modernize the legacy C-130H tactical airlift fleet. That said, I continue to be concerned about the ability of our military to properly provide for our Nation's defense at the proposed fiscal year 2017 budget levels.    As I and many of the members of this subcommittee indicated in a letter to the chairman of the Budget Committee, this year's budget request reduced investment in critical force structure and modernization programs by approximately $18 billion.    Specifically, I am concerned about the implications of delaying the incremental replacement of the C-130H fleet and the proposed reduction of 27 C-130s. The Air Force has previously assessed that there is moderate risk with reduced C-130 force structure, and another reduction further places our national security at even greater risk.    It seems to me that the budget request will result in a tactical airlift fleet that is smaller and older, a dangerous combination. The Air Force budget rollout indicated ``the Air Force is one of the smallest, busiest, and oldest and least ready fleets in our history.''    It is my firm conviction, in light of the higher-end threats posed by China, Russia, Iran, and North Korea, that the Air Force have the resources it needs to fully support--and if possible accelerate--critical recapitalization programs; to include purchasing additional aircraft with each dollar saved, if the war fighting requirements demand it.    With regards to bombers, last week the Air Force designated the Long Range Strike Bomber as the B-21 bomber. I fully support this critical program and am pleased to see that we are, once again, moving forward on this new platform, which will be needed for projecting power over long distances and into denied environments.    With regard to tankers, I am pleased to see that the KC-46A program appears to be on track after overcoming some initial setbacks and is continuing to execute a highly compressed test and certification schedule that has little room for error. I look forward to hearing your thoughts on this program, and whether or not the first 18 aircraft will be delivered in time to meet the August 2017 contract deadline.    Lastly, I am concerned that this budget fails to provide the resources needed to procure the avionics upgrades needed to ensure that the entire fleet of tankers, airlifters, and bombers are able to cooperate safely in compliance with the FAA [Federal Aviation Administration] mandated next-generation air traffic management standards by January 1, 2020.    The civilian aviation sector is rapidly moving toward compliance, and I am concerned that our military aircraft could be shut out of the airspace they need for transit and training.    In sum, while I am pleased that the Air Force fiscal year 2017 budget request makes up some lost ground over last year, I am concerned that the proposed budget forces the Air Force and its sister services to make false choices between capability, capacity, and safety, when the undeniable reality is that our military needs all of the above.    I firmly believe that what this subcommittee and the rest of Congress does about national defense and military readiness will be a defining issue. I firmly believe that we need a strong Air Force, equipped with the most capable aircraft that enable our men and women to carry out their missions effectively and safely.    To do this, we need leadership in national security. We need an unambiguous declaration that our national security is our preeminent responsibility.    Once again, I want to thank our witnesses for participating in our hearing this afternoon. And I look forward to discussing these important topics.    And, with that, I turn to my good friend and colleague, the ranking member of the subcommittee, Joe Courtney.    [The prepared statement of Mr. Forbes can be found in the Appendix on page 27.]</t>
   </si>
   <si>
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. Thank you for holding this hearing on the 2017 Air Force budget request for projection forces program, under the jurisdiction of our subcommittee. And thank you, as well, to our distinguished witnesses that are here today.    The tankers, bombers, and airlift programs that fall under the projection forces side of our panel's oversight serve as the backbone of our Nation's ability to conduct operations and preserve our Nation's interests around the world.    As we know all too well, however, they all share the common enemy of age. The tankers and bombers in service today are largely legacy aircraft that, in most cases, are much older than the airmen and women who fly them.    As we have heard repeatedly in our hearings over the last year, the need to modernize and recapitalize these aircraft and their capabilities is increasingly critical. Rapidly improving A2/AD [anti-access/area denial] capabilities, long-range weapons, and sensing technologies make upgrading and replacing our legacy fleets that much more important.    In order to meet these challenges, we must make the right investments today to ensure that we stay ahead of these trends. In my view, the 2017 budget we are considering here today makes important investments toward this goal and, on the whole, moves us in the right direction.    Most notably, the budget continues to reflect the high strategic priority placed on two critical recapitalization programs, the KC-46A Pegasus tanker and the newly designated B-21 Long Range Strike Bomber.    Both programs have recently seen important milestones in their progress. For example, a KC-46A successfully conducted an in-flight refueling of an F/A-18 Hornet last month, making the aircraft's first use of the tanker's hose and drogue system.    And the B-21 bomber recently saw the restart of the program, following the conclusion of a protest of the contract award. Together, these developments show continued progress toward rebuilding the essential backbone of our force projection capabilities. And I look forward to an update on the status of these two efforts.    An ongoing area of concern for me is the modernization of our C-130H fleet. The ``Flying Yankees'' of the 103d Airlift Wing in Connecticut have largely completed their transition to their new C-130H flying mission.    This mission, which ends several years of uncertainty about losing their A-10 mission in BRAC [Base Realignment and Closure] 2005, provides a sustainable and relevant role for our State and an important mobility capability for our Nation.    Until last year, Congress and the Air Force had struggled to move forward on a clear plan to modernize our C-130Hs. Working with Air Force officials that are here, General Holmes, in particular, we included language in the 2016 NDAA [National Defense Authorization Act] to allow the service to move forward with a two-part modernization program to meet near-term FAA and international airspace mandates that go into effect in 2020 and then focus on the longer-term upgrades, to ensure the viability of the fleet well into the future.    I am pleased that the budget accelerates both modernization efforts, known as AMP 1 [Avionics Modernization Program] and AMP 2, for the C-130H fleet. It is my understanding that, through this budget, the Air Force intends to have most, if not all, of the fleet airspace compliant by the 2020 deadline.    Further, the budget outlines a plan to install 42 Increment 2 upgrades by 2021 and to the rest of the fleet by 2028. I look forward to hearing from the witnesses about ways in which the Air Force, with the support of Congress, can continue to accelerate Increment 2 to meet the enduring need for these workhorses of our Nation's airlift.    Finally, over the last year, Congress has made meaningful and bipartisan progress in limiting the impact of sequestration and the Budget Control Act [BCA]. While partially limiting the across-the-board cuts in 2016 and 2017 was important, the fact remains that our Air Force, like the military at large, remains handcuffed by sequestration in 2018 and beyond.    Ever since passage of the Bipartisan Budget Act [BBA] last fall, several world events have further demonstrated just how important it is for all of us on this committee and our colleagues to work on both sides of the aisle in Congress to come together to make the compromises needed to protect our security and support the needs of our Nation.    I look forward to hearing from our witnesses and our colleagues on the subcommittee.    And, Mr. Chairman, I yield back.    [The prepared statement of Mr. Courtney can be found in the Appendix on page 29.]</t>
   </si>
   <si>
@@ -112,6 +127,12 @@
     <t>412444</t>
   </si>
   <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you. Thank you, Mr. Chairman. And I would have to say, General, that the citizens of Tennessee, no doubt, are very proud of both of you. So quite an accomplishment. Appreciate what you do.    I wanted to follow up, actually, on what the ranking member was questioning about the propellers and the engines. Can you, just going forward, tell us about how fuel efficiency would be impacted by the investment in propeller and engine modernizations?    General Bunch. Ma'am, I do not have a number in front of me. I know that is one of the factors that we will weigh out in the operational evaluation, will be to determine how much fuel savings there are, so that we could do the cost capability analysis, but I do not have a number on me. I will take that for the record.    [The information referred to can be found in the Appendix on page 53.]</t>
   </si>
   <si>
@@ -139,6 +160,12 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman, and thank you for calling this hearing.    General Holmes and General Bunch, thank you very much for your service to our country. I guess either one of you might be able to answer this. I asked this question at a previous hearing, but I will repeat it again.    First, I would like to voice my appreciation for the Air Force's diligent work in moving forward with the acquisition process of the Long Range Strike Bomber. The capabilities that this platform will provide are extremely, extremely necessary to maintain the defense of our Nation and our allies.    So, General Bunch, I will begin with you. There has been recent criticism from one of our Senators against the Air Force's proposed use of cost-plus during the early stages of the acquisition program for the Long Range Strike Bomber.    Now, can you please explain why the Air Force prefers a blended, cost-plus, fixed-price approach for this program and what advantages, General, it provides, in this instance, over the traditional acquisition method?    General Bunch. Well, thank you, ma'am. That is a topic of interest, and I am glad that I get the opportunity to try to address it. Let me start with, there is no one-size-fits-all when it comes to deciding what kind of a contract you want to use on an acquisition program. There are various factors that are weighed out.    On this one, we carefully considered the full spectrum of contract options before a decision was made by the Milestone Decision Authority to go forward with a cost-plus for the engineering, manufacturing, and development.    In reality, over 70% of the program, as it is laid out today, is actually on a fixed-price type contract. It is only the part that is in the EMD [engineering and manufacturing development] phase, is the only part, right now, that is in a cost-plus environment, but the vast majority of it is in a fixed price.    The key factors that went into the decision to go forward with a cost-plus contract were the risk involved. And when there is technical risk and you don't really--you have never built something before, there is a risk that is out there, and a cost-plus environment is more frequently used in that case    In this case, we had mature technologies to meet the requirement, and that was good. But now we have to integrate all of those mature technologies together, which carries risk, and we have to build a never-before-built, low-observable, penetrating bomber and integrate those on it. Those are the main technical risk areas that we have focused on.    The other one that you focus on and that we consider is, can the contractor who is doing this kind of work absorb a loss if one were to occur. The example many point to right know is the KC-46 program.    The KC-46 program is gone beyond what the Air Force cap, in the expenses, but Boeing continues to do that and continue that work, because they have a commercial line that they can utilize and they can continue to get benefits from. And the other piece they can do is they can get foreign military sales.    Commercialization of a Long Range Strike Bomber and foreign military sales are not two things that we are looking at. So the ability of any contractor that took this contract to be able to absorb that and not sell it out, that wouldn't be feasible.    And there are many examples that you can go back and look at where we have tried to do fixed-price development programs on new and emerging technologies, and many of those cases have not been very successful. But that is the reason we went down that path.    We realize that one of the big concerns that people have with this strategy is the need to control cost growth, and that is a focus area that we have had from the very beginning of the program.    We have used mature technologies, so we are not worried about developing additional. It is not--you are not developing a system along with the platform, you are just developing the platform. So we have limited some of the risk there. We have an independent cost assessment. It was done outside the program office, and we funded that independent cost assessment, in accordance with the law.    And then, the other one we have on this program are stable requirements. Stable requirements and requirements control and funding with a good cost assessment from the beginning, studies have shown are the two main ways to control, two of the major ways to control, cost growth. So we are stable on our requirements and we feel like we are in a good position for starting the program.    The other piece that we have implemented here is, our requirements control officer for the program is our chief. He has made it crystal clear the requirements are the requirements and no one else is going to change those. So we have a tight control on those, as well.    The final thing I would say we have done to control cost growth is that we have structured the contract with an incentive structure that incentivizes the contractor in the way we want. If they do not control cost and they do not control schedule, they will, in the end, not get any fee. So we have structured it in a manner to control those cost growths, and we know this is going to be a topic of more discussion, ma'am.</t>
   </si>
   <si>
@@ -151,6 +178,12 @@
     <t>412538</t>
   </si>
   <si>
+    <t>Walorski</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman, and thank you, gentlemen, for being here.    General Bunch, I have a question. What is your assessment of whether Boeing will meet its contractual obligations to deliver 18 KC-46As by August of 2017?    General Bunch. So, ma'am, we are still cautiously optimistic. Boeing still assesses that they can meet it. They are committed to that date. They have put additional resources to make that date, but we have no schedule margin. And if I am asked why I am cautiously optimistic, we are still early in a test program that we talked about.    We have been successful with meeting our milestone C criteria for an F-16, for the F-18, which was discussed, and also with the KC-46 receiving gas as a refueler. So we have made progress, but we still have a lot of progress to go, ma'am.</t>
   </si>
   <si>
@@ -169,6 +202,12 @@
     <t>412620</t>
   </si>
   <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman. Good to see you both again. I had, actually, a different question, but something you just said just sparked--first of all, you are young. Very, very young. In terms of maintaining this aircraft, these aircraft, what is the maintenance, what is the process for maintenance that you follow?    One of the things that concern me, I represent Tyndall. And when I went to visit Tyndall one time, I had someone pull me aside and say, the challenges that they faced. And I am sorry if this question has already been asked, if I walked in--the challenges they face with just getting a part, in order to fly the F-22. What challenges, if any, do you all face with the maintenance of the, let me use, the Air Force projection forces? Thank you.    General Bunch. Yes, ma'am. So, we face challenges on the older aircraft. There is no doubt about it. We are constantly fighting diminishing manufacturing sources and parts obsolescence. It is one that the program offices actually track, so they can determine where they can get parts.    There are certain ways that we will work together, and, in many of our efforts, we will identify where the trends are. And we will make investments in those from a supportability phase, so that we can modernize those components, as time goes forward.    So it is a risk that we run on all the older fleets. What we also find is that we don't know what we don't know sometimes. Sometimes, we will find things as we go into depot maintenance.    Sometimes we will find things out on the frontline that we didn't predict, simply because of the age of the fleet and how they have matured through the use and the extensive use that we have with the platforms.</t>
   </si>
   <si>
@@ -187,6 +226,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman. General Bunch, I just want to thank you for your commitment in the President's budget request for AMP 1 and AMP 2. I wanted to ask, is AMP 1 multiple contracts or a single contract covering all of AMP 1?    General Bunch. So it depends on which exact phase we are talking about, sir. So the answer, I hate to say, it depends.</t>
   </si>
   <si>
@@ -221,6 +266,12 @@
   </si>
   <si>
     <t>400232</t>
+  </si>
+  <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman. I would have questions on the K-46, but other than you all, the folks, good men and women on the line at Boeing, and me, we are all probably living and breathing it every day. And I know what I need to know on the 46. So I won't ask any more questions about that.    I do have a question, just one, Mr. Chairman, on subject matter in your testimony on the B-52 and the length of time we are expecting it to, as a platform, to stick around, and combining that with all the discussion we have on A2/AD environments.    And, so, if you could talk a little bit, maybe more clearly or any more details, specific detail about the B-52's role in the future in an A2/AD environment and from standoff and what we expect to be able to invest in it?    General Holmes. Thank you, Congressman. I will start and see if Arnie has anything to add.</t>
@@ -623,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,7 +682,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,1637 +704,1980 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
       <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
       <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99647.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99647.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Forbes</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Courtney</t>
   </si>
   <si>
@@ -125,6 +134,9 @@
   </si>
   <si>
     <t>412444</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Hartzler</t>
@@ -674,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +694,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,1977 +719,2184 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>42</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G52" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>103</v>
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
